--- a/docss/trend/spain/E_granulomatosis.xlsx
+++ b/docss/trend/spain/E_granulomatosis.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej15_Granulomatosis_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej15_Granulomatosis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,13 +12833,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>3.8987513197685578E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C2">
-        <v>4.3158806287256817E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D2">
-        <v>3.5015936691694595E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12847,13 +12847,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>5.3650650153803082E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>6.8753647354952707E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D3">
-        <v>3.7179306002433118E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12861,13 +12861,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>4.299441715716943E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C4">
-        <v>5.9834292645820089E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D4">
-        <v>2.9372361072760346E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12875,13 +12875,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>4.9772001068585599E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
-        <v>6.9138257621457908E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D5">
-        <v>3.3701687806873673E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12889,13 +12889,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>3.336171380839844E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C6">
-        <v>4.4223862243742008E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D6">
-        <v>2.6096622958665217E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12903,13 +12903,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>3.2862507955087175E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>3.7851325592863722E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>2.6656552152898753E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12917,13 +12917,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>4.9232748068618229E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C8">
-        <v>6.2104137491444431E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D8">
-        <v>3.6024741293867388E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12931,13 +12931,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>3.8477591524244646E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C9">
-        <v>5.1512120543997876E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D9">
-        <v>2.7225911282556619E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12945,13 +12945,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>3.2295115842390448E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>3.8749315526485938E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D10">
-        <v>2.6366515281423406E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12959,13 +12959,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>4.4892827871219128E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C11">
-        <v>4.3051452836375924E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D11">
-        <v>4.6012115367677235E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12973,13 +12973,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>3.8154592254537691E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C12">
-        <v>5.9560996164830599E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D12">
-        <v>2.1702956353917106E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>3.748236716956229E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C13">
-        <v>4.9904484666687364E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D13">
-        <v>2.7333842208398323E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13001,13 +13001,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>2.9640780191130089E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C14">
-        <v>4.2768448789660414E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D14">
-        <v>1.8742272468121317E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>3.3474853659809983E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C15">
-        <v>5.9622223745498457E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D15">
-        <v>1.1335903037067184E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,13 +13029,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>4.4106588980252853E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C16">
-        <v>4.3657753884597812E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D16">
-        <v>4.4808403073553743E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
